--- a/lib/scripts/categories_listing_v5.xlsx
+++ b/lib/scripts/categories_listing_v5.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="126">
   <si>
     <t>Category ID</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>Spitogatos Slug</t>
+  </si>
+  <si>
+    <t>Rank</t>
   </si>
   <si>
     <t>Κατοικία</t>
@@ -449,11 +452,11 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
@@ -715,7 +718,9 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1"/>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -740,10 +745,10 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="3">
         <v>1.0</v>
@@ -752,7 +757,10 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="K2" s="4">
+        <v>1.0</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
@@ -760,10 +768,10 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" s="3">
         <v>1.0</v>
@@ -772,7 +780,10 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="K3" s="4">
+        <v>2.0</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
@@ -780,10 +791,10 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" s="3">
         <v>1.0</v>
@@ -792,7 +803,10 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="K4" s="4">
+        <v>3.0</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
@@ -800,10 +814,10 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" s="3">
         <v>1.0</v>
@@ -812,7 +826,10 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="K5" s="4">
+        <v>4.0</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
@@ -820,10 +837,10 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" s="3">
         <v>2.0</v>
@@ -832,20 +849,23 @@
         <v>1.0</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="5" t="str">
+        <v>25</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="4" t="str">
         <f t="shared" ref="J6:J8" si="1">H6</f>
         <v>apartment</v>
+      </c>
+      <c r="K6" s="4">
+        <v>5.0</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
@@ -853,10 +873,10 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" s="3">
         <v>2.0</v>
@@ -865,20 +885,23 @@
         <v>1.0</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="5" t="str">
+        <v>28</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="4" t="str">
         <f t="shared" si="1"/>
         <v>studio</v>
+      </c>
+      <c r="K7" s="4">
+        <v>6.0</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
@@ -886,10 +909,10 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8" s="3">
         <v>2.0</v>
@@ -898,20 +921,23 @@
         <v>1.0</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8" s="5" t="str">
+        <v>31</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="4" t="str">
         <f t="shared" si="1"/>
         <v>maisonette</v>
+      </c>
+      <c r="K8" s="4">
+        <v>7.0</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
@@ -919,10 +945,10 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="5" t="s">
         <v>32</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="D9" s="3">
         <v>2.0</v>
@@ -931,19 +957,22 @@
         <v>1.0</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" s="5" t="s">
         <v>34</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" s="4">
+        <v>8.0</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
@@ -951,10 +980,10 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D10" s="3">
         <v>2.0</v>
@@ -963,20 +992,23 @@
         <v>1.0</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" s="5" t="str">
+        <v>38</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="4" t="str">
         <f t="shared" ref="J10:J13" si="2">H10</f>
         <v>villa</v>
+      </c>
+      <c r="K10" s="4">
+        <v>9.0</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
@@ -984,10 +1016,10 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D11" s="3">
         <v>2.0</v>
@@ -996,20 +1028,23 @@
         <v>1.0</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J11" s="5" t="str">
+        <v>40</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="4" t="str">
         <f t="shared" si="2"/>
         <v>loft</v>
+      </c>
+      <c r="K11" s="4">
+        <v>10.0</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
@@ -1017,10 +1052,10 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D12" s="3">
         <v>2.0</v>
@@ -1029,20 +1064,23 @@
         <v>1.0</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J12" s="5" t="str">
+        <v>42</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="4" t="str">
         <f t="shared" si="2"/>
         <v>bungalow</v>
+      </c>
+      <c r="K12" s="4">
+        <v>11.0</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
@@ -1050,10 +1088,10 @@
         <v>12.0</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D13" s="3">
         <v>2.0</v>
@@ -1062,20 +1100,23 @@
         <v>1.0</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13" s="5" t="str">
+        <v>45</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="4" t="str">
         <f t="shared" si="2"/>
         <v>building</v>
+      </c>
+      <c r="K13" s="4">
+        <v>12.0</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
@@ -1083,10 +1124,10 @@
         <v>13.0</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D14" s="3">
         <v>2.0</v>
@@ -1095,126 +1136,138 @@
         <v>1.0</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K14" s="4">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="4">
+        <v>33.0</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" s="4" t="s">
+      <c r="G15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J14" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="5">
-        <v>33.0</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="E15" s="5">
+      <c r="H15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K15" s="4">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="4">
+        <v>34.0</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E16" s="4">
         <v>1.0</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="3" t="s">
+      <c r="F16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I15" s="6" t="s">
+      <c r="G16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="5">
-        <v>34.0</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="E16" s="5">
+      <c r="H16" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K16" s="4">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="4">
+        <v>35.0</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E17" s="4">
         <v>1.0</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="3" t="s">
+      <c r="F17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="I16" s="6" t="s">
+      <c r="G17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J16" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="5">
-        <v>35.0</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="E17" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>57</v>
+      <c r="H17" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>58</v>
+        <v>13</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K17" s="4">
+        <v>16.0</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="5">
+      <c r="A18" s="4">
         <v>14.0</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D18" s="3">
         <v>2.0</v>
@@ -1223,31 +1276,34 @@
         <v>2.0</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J18" s="5" t="str">
+        <v>16</v>
+      </c>
+      <c r="J18" s="4" t="str">
         <f>H18</f>
         <v>office</v>
       </c>
+      <c r="K18" s="4">
+        <v>17.0</v>
+      </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="5">
+      <c r="A19" s="4">
         <v>15.0</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D19" s="3">
         <v>2.0</v>
@@ -1256,63 +1312,69 @@
         <v>2.0</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K19" s="4">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="4">
+        <v>16.0</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H19" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="I19" s="3" t="s">
+      <c r="G20" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J19" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="5">
-        <v>16.0</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="E20" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="H20" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J20" s="5" t="str">
+        <v>16</v>
+      </c>
+      <c r="J20" s="4" t="str">
         <f>H20</f>
         <v>warehouse</v>
       </c>
+      <c r="K20" s="4">
+        <v>19.0</v>
+      </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="5">
+      <c r="A21" s="4">
         <v>17.0</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D21" s="3">
         <v>2.0</v>
@@ -1321,95 +1383,104 @@
         <v>2.0</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="K21" s="4">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="4">
+        <v>18.0</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I21" s="3" t="s">
+      <c r="G22" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J21" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="5">
-        <v>18.0</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D22" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="3" t="s">
+      <c r="H22" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="K22" s="4">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="4">
+        <v>19.0</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="I22" s="3" t="s">
+      <c r="G23" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J22" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="5">
-        <v>19.0</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D23" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="E23" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="H23" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J23" s="5" t="str">
+        <v>16</v>
+      </c>
+      <c r="J23" s="4" t="str">
         <f>H23</f>
         <v>hotel</v>
       </c>
+      <c r="K23" s="4">
+        <v>22.0</v>
+      </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="5">
+      <c r="A24" s="4">
         <v>20.0</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D24" s="3">
         <v>2.0</v>
@@ -1418,63 +1489,69 @@
         <v>2.0</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K24" s="4">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="4">
+        <v>21.0</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E25" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="I24" s="3" t="s">
+      <c r="G25" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J24" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="5">
-        <v>21.0</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D25" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="E25" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="H25" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J25" s="5" t="str">
+        <v>16</v>
+      </c>
+      <c r="J25" s="4" t="str">
         <f t="shared" ref="J25:J26" si="3">H25</f>
         <v>hall</v>
       </c>
+      <c r="K25" s="4">
+        <v>24.0</v>
+      </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="5">
+      <c r="A26" s="4">
         <v>22.0</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D26" s="3">
         <v>2.0</v>
@@ -1483,63 +1560,69 @@
         <v>2.0</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J26" s="5" t="str">
+        <v>16</v>
+      </c>
+      <c r="J26" s="4" t="str">
         <f t="shared" si="3"/>
         <v>showroom</v>
       </c>
+      <c r="K26" s="4">
+        <v>25.0</v>
+      </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="5">
+      <c r="A27" s="4">
         <v>36.0</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D27" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="E27" s="5">
+      <c r="B27" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E27" s="4">
         <v>2.0</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="I27" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J27" s="5" t="s">
+      <c r="H27" s="4" t="s">
         <v>92</v>
       </c>
+      <c r="I27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="K27" s="4">
+        <v>26.0</v>
+      </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="5">
+      <c r="A28" s="4">
         <v>23.0</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D28" s="3">
         <v>2.0</v>
@@ -1548,30 +1631,33 @@
         <v>3.0</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J28" s="5" t="s">
         <v>96</v>
       </c>
+      <c r="I28" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="K28" s="4">
+        <v>27.0</v>
+      </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="5">
+      <c r="A29" s="4">
         <v>24.0</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D29" s="3">
         <v>2.0</v>
@@ -1580,30 +1666,33 @@
         <v>3.0</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J29" s="5" t="s">
         <v>100</v>
       </c>
+      <c r="I29" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="K29" s="4">
+        <v>28.0</v>
+      </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="5">
+      <c r="A30" s="4">
         <v>25.0</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D30" s="3">
         <v>2.0</v>
@@ -1612,31 +1701,34 @@
         <v>3.0</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J30" s="5" t="str">
+        <v>104</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J30" s="4" t="str">
         <f>H30</f>
         <v>island</v>
       </c>
+      <c r="K30" s="4">
+        <v>29.0</v>
+      </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="5">
+      <c r="A31" s="4">
         <v>26.0</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>104</v>
+        <v>56</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="D31" s="3">
         <v>2.0</v>
@@ -1645,30 +1737,33 @@
         <v>3.0</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="I31" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J31" s="5" t="s">
+      <c r="H31" s="4" t="s">
         <v>106</v>
       </c>
+      <c r="I31" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="K31" s="4">
+        <v>30.0</v>
+      </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="5">
+      <c r="A32" s="4">
         <v>27.0</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D32" s="3">
         <v>2.0</v>
@@ -1677,30 +1772,33 @@
         <v>4.0</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J32" s="5" t="s">
         <v>109</v>
       </c>
+      <c r="I32" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="K32" s="4">
+        <v>31.0</v>
+      </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="5">
+      <c r="A33" s="4">
         <v>28.0</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D33" s="3">
         <v>2.0</v>
@@ -1709,31 +1807,34 @@
         <v>4.0</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J33" s="5" t="str">
+        <v>113</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J33" s="4" t="str">
         <f t="shared" ref="J33:J36" si="4">H33</f>
         <v>business</v>
       </c>
+      <c r="K33" s="4">
+        <v>32.0</v>
+      </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="5">
+      <c r="A34" s="4">
         <v>29.0</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D34" s="3">
         <v>2.0</v>
@@ -1742,31 +1843,34 @@
         <v>4.0</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J34" s="5" t="str">
+        <v>116</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J34" s="4" t="str">
         <f t="shared" si="4"/>
         <v>prefabricated</v>
       </c>
+      <c r="K34" s="4">
+        <v>33.0</v>
+      </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="5">
+      <c r="A35" s="4">
         <v>30.0</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D35" s="3">
         <v>2.0</v>
@@ -1775,31 +1879,34 @@
         <v>4.0</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J35" s="5" t="str">
+        <v>119</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J35" s="4" t="str">
         <f t="shared" si="4"/>
         <v>detachable</v>
       </c>
+      <c r="K35" s="4">
+        <v>34.0</v>
+      </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="5">
+      <c r="A36" s="4">
         <v>31.0</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D36" s="3">
         <v>2.0</v>
@@ -1808,31 +1915,34 @@
         <v>4.0</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J36" s="5" t="str">
+        <v>122</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J36" s="4" t="str">
         <f t="shared" si="4"/>
         <v>air</v>
       </c>
+      <c r="K36" s="4">
+        <v>35.0</v>
+      </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="5">
+      <c r="A37" s="4">
         <v>32.0</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D37" s="3">
         <v>2.0</v>
@@ -1841,19 +1951,22 @@
         <v>4.0</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J37" s="5" t="s">
-        <v>21</v>
+        <v>125</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K37" s="4">
+        <v>36.0</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1"/>
